--- a/input.xlsx
+++ b/input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Исходные данные" sheetId="1" r:id="rId1"/>
@@ -24,30 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Адрес</t>
   </si>
   <si>
-    <t>Воронежская область, Рамонский район,п.ВНИИСС, 86Ж</t>
-  </si>
-  <si>
-    <t>Воронежская область, Рамонский район,п.ВНИИСС, 143-а</t>
-  </si>
-  <si>
-    <t>Воронежская область, Рамонский район,п.ВНИИСС,81а</t>
-  </si>
-  <si>
-    <t>Воронежская область, Рамонский район,п.ВНИИСС,   81-б</t>
-  </si>
-  <si>
-    <t>Воронежская область, Рамонский район,п.ВНИИСС, д.117</t>
-  </si>
-  <si>
-    <t>Воронежская область, Рамонский район,п.ВНИИСС, д.81</t>
-  </si>
-  <si>
-    <t>Воронежская область, Рамонский район,п.ВНИИСС, д.92-а</t>
+    <t>посёлок ВНИИСС, 102А, Айдаровское сельское</t>
   </si>
 </sst>
 </file>
@@ -399,7 +381,7 @@
   <dimension ref="A1:A1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -417,36 +399,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Исходные данные" sheetId="1" r:id="rId1"/>
@@ -29,14 +29,14 @@
     <t>Адрес</t>
   </si>
   <si>
-    <t>посёлок ВНИИСС, 102А, Айдаровское сельское</t>
+    <t>Московская обл.,Люберецкий район, дп. Красково, ул. Некрасова, д.11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -62,6 +62,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -93,9 +99,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -381,7 +388,7 @@
   <dimension ref="A1:A1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -394,8 +401,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>

--- a/input.xlsx
+++ b/input.xlsx
@@ -9,26 +9,30 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="500"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Исходные данные" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>Адрес</t>
   </si>
   <si>
+    <t>Воронежская область, Рамонский район, п. ВНИИСС, стр. 85в</t>
+  </si>
+  <si>
+    <t>Воронежская область, Рамонский район, х. Красное,  д. №1, кв. №2</t>
+  </si>
+  <si>
+    <t>Воронежская область, Рамонский район, с. Айдарово, ул. Мазлумова, д. 12ж, кв. №71</t>
+  </si>
+  <si>
     <t>Воронежская область, Рамонский район, х. Красное</t>
   </si>
   <si>
@@ -36,6 +40,210 @@
   </si>
   <si>
     <t>Воронежская область, Рамонский район, п. ВНИИСС</t>
+  </si>
+  <si>
+    <t>Воронежская область, Рамонский район, с. Глушицы</t>
+  </si>
+  <si>
+    <t>Самарская область, г.Кинель, пгт. Усть-Кинельский, ул. Торговая, д. 5</t>
+  </si>
+  <si>
+    <t>Самарская область, г. Кинель, пгт.Усть-Кинельский, ул. Испытателей, д. 2</t>
+  </si>
+  <si>
+    <t>Самарская область, г. Кинель, пгт. Усть-Кинельский, ул. Парковая, д. 1</t>
+  </si>
+  <si>
+    <t>Самарская область, г. Кинель, пгт. Усть-Кинельский, ул. Спортивная, д. 12А</t>
+  </si>
+  <si>
+    <t>Самарская область, г.Кинель, пгт. Усть-Кинельский,  ул.Спортивная, д. 9А</t>
+  </si>
+  <si>
+    <t>Самарская область, г. Кинель, п.г.т. Усть-Кинельский, ул 5-я Парковая, д 15</t>
+  </si>
+  <si>
+    <t>Россия, обл. Самарская, г. Кинель, пгт. Усть-Кинельский, ул. Спортивная, 7</t>
+  </si>
+  <si>
+    <t>Самарская область, г. Кинель, пгт. Усть-Кинельский ул.Спортивная, д. 12 Б</t>
+  </si>
+  <si>
+    <t>Самарская область, г. Кинель, пгт. Усть-Кинельский, ул. Торговая, д. 5</t>
+  </si>
+  <si>
+    <t>Самарская область, г. Кинель, пгт. Усть-Кинельский, ул. Шоссейная, д. 101</t>
+  </si>
+  <si>
+    <t>Смоленская область, г. Смоленск ул. Б.Советская д.10/2</t>
+  </si>
+  <si>
+    <t>Москва, ул. Угрешская д.33, стр.7</t>
+  </si>
+  <si>
+    <t>Краснодарский край, Новокубанский район, п. Прогресс, ул. Горбатко, 3</t>
+  </si>
+  <si>
+    <t>Краснодарский край, Новокубанский район, п.Передовй, ул.Алехина, 2</t>
+  </si>
+  <si>
+    <t>Краснодарский  край, Новокубанский район, п.Прогресс, ул.Мечникова,11</t>
+  </si>
+  <si>
+    <t>Алтайский край. Поспелихинский р-н. с. Поспелиха ул.Социалистическая,17</t>
+  </si>
+  <si>
+    <t>Воронежская область, Рамонский район,п.ВНИИСС, 86Ж</t>
+  </si>
+  <si>
+    <t>Республика Бурятия, г.Улан-Удэ, ул.Челябинская, д.11</t>
+  </si>
+  <si>
+    <t>Республика Бурятия, Бичурский р-н, с.Бичура, ул.Советская, д.84</t>
+  </si>
+  <si>
+    <t>Республика Бурятия, Селенгинский р-н, п.Темник, ул.Октябрьская, д.7/в</t>
+  </si>
+  <si>
+    <t>Пермский край, Индустриальный район, г. Пермь, ул. Промышленная, д. 83</t>
+  </si>
+  <si>
+    <t>Ростовская обл, Аксайский район, п. Рассвет, ул. Институтская, дом 36</t>
+  </si>
+  <si>
+    <t>Краснодарский  край, Новокубанский район, п. Прогресс, ул. Мечникова, 11</t>
+  </si>
+  <si>
+    <t>Краснодарский край, г.Краснодар, Прикубанский округ, п.Колосистый, ул.Звездная, 36</t>
+  </si>
+  <si>
+    <t>Российская Федерация, Краснодарский кр., Гулькевичский район, п.Кубань, ул.Школьная, дом №8</t>
+  </si>
+  <si>
+    <t>Краснодарский край, Динской р-н, ст-ца Динская, ул. Крайняя, д. 10</t>
+  </si>
+  <si>
+    <t>Краснодарский край, г. Краснодар, Центральная усадьба КНИИСХ</t>
+  </si>
+  <si>
+    <t>Российская Федерация, Краснодарский кр., Кореновский район, п. Свободный, пер. Главный, дом №11, кв. 4</t>
+  </si>
+  <si>
+    <t>Краснодарский край, Гулькевичский р-н, п.Урожайный, Шоссейная, д.4А</t>
+  </si>
+  <si>
+    <t>Российская Федерация, Краснодарский кр.,   Гулькевичский район, п.Кубань, ул.Спортивная, дом.14</t>
+  </si>
+  <si>
+    <t>Краснодарский край   р-н Гулькевичский, п.Кубань, ул.Почтовая, 2а</t>
+  </si>
+  <si>
+    <t>Россия, Краснодарский край, Павловский район, пос. Октябрьский, ул. Калинина,д.1</t>
+  </si>
+  <si>
+    <t>Московская обл., г.о. Пушкинский, рп. Правдинский, ул. Лесная, 60</t>
+  </si>
+  <si>
+    <t>352243, Краснодарский край,Новокубанский район, г. Новокубанск, ул. Кутузова, д. 2</t>
+  </si>
+  <si>
+    <t>352243, Краснодарский край, Новокубанский р-н, г. Новокубанск, ул. Кутузова 5/1</t>
+  </si>
+  <si>
+    <t>Россия, 352240, Краснодарский край, Новокубанск, Строительная ул, д. 2</t>
+  </si>
+  <si>
+    <t>352243, Краснодарский край, Новокубанский р-н, г. Новокубанск, ул. Кирьянова, д. 23</t>
+  </si>
+  <si>
+    <t>346421, Ростовская область, г. Новочеркасск, пр. Баклановский,  д. 190</t>
+  </si>
+  <si>
+    <t>140051, Московская обл.,Люберецкий район, дп. Красково, ул. Некрасова, д.11</t>
+  </si>
+  <si>
+    <t>140051, Московская обл.,Люберецкий район, дп. Красково, ул. Островского, д.8</t>
+  </si>
+  <si>
+    <t>Россия, обл. Ленинградская, р-н. Гатчинский, пгт. Сиверский, ул. Толмачева, д. 71, кв. 67</t>
+  </si>
+  <si>
+    <t>Россия, обл. Ленинградская, р-н. Гатчинский, пгт. Сиверский, ул. Толмачева, д. 71, кв. 76</t>
+  </si>
+  <si>
+    <t>Россия, обл. Ленинградская, Гатчинский район, пос. Сиверский, ул. Толмачева, д. 71, кв. 9</t>
+  </si>
+  <si>
+    <t>Россия, 188338, Россия, 188338, Ленинградская область, Гатчинский район, Белогорка, Институтская ул, д. 1</t>
+  </si>
+  <si>
+    <t>Костромская область, Костромской район, с. Минское, ул. Куколевского, д. 18</t>
+  </si>
+  <si>
+    <t>Россия, 242017, Центральный ФО, Брянская область, Брянский, Поселок городского типа Новые Дарковичи, Веселая, д. 15</t>
+  </si>
+  <si>
+    <t>165390, Архангельская область, Котласский район, дер. Курцево, ул. Северная, д.3, кв.1</t>
+  </si>
+  <si>
+    <t>Россия, 188338, обл Ленинградская, р-н Гатчинский, д Белогорка, ул Институтская, 1</t>
+  </si>
+  <si>
+    <t>Россия, 188338, Ленинградская область, Гатчинский район, д. Новосиверская, д. 71а,</t>
+  </si>
+  <si>
+    <t>Россия, 140051, Центральный ФО, Московская область, Люберецкий, Поселок Красково, новая, д. 1, литера 2Э</t>
+  </si>
+  <si>
+    <t>Россия, 241517, Центральный ФО, Брянская область, Брянский, Поселок городского типа Новые Дарковичи, Веселая, д. 11а</t>
+  </si>
+  <si>
+    <t>Россия, 357355, край Ставропольский, р-н Предгорный, п Пятигорский, ул Новая, 37, 2</t>
+  </si>
+  <si>
+    <t>Россия, край Ставропольский, г Пятигорск, ш Кисловодское, 5д</t>
+  </si>
+  <si>
+    <t>Россия, 352193, Южный ФО, Краснодарский край, Гулькевичский, Город Гулькевичи, Тимирязева, д. 2, к. а, литера Оо</t>
+  </si>
+  <si>
+    <t>Россия, 352193, Южный ФО, Краснодарский край, Гулькевичский, Город Гулькевичи, Тимирязева, д. 4, литера Д</t>
+  </si>
+  <si>
+    <t>Россия, 352156, Южный ФО, Краснодарский край, Гулькевичский, Город Гулькевичи, Краснодарский, д. 15, помещение 31</t>
+  </si>
+  <si>
+    <t>Краснодарский край г.Гулькевичи ул.Тимирязева д.14Г</t>
+  </si>
+  <si>
+    <t>410050, Саратовская обл., г.Саратов, 1-й Институтский проезд, №4</t>
+  </si>
+  <si>
+    <t>Саратовская область, г.о. город Саратов, г.Саратов, 9-й Долинный проезд, зд. 26А</t>
+  </si>
+  <si>
+    <t>Россия, 143026, Московская область, Одинцовский район, Новоивановское, Калинина ул, д. 1</t>
+  </si>
+  <si>
+    <t>Россия, 301493, Тульская область, Плавский район, Молочные Дворы, ул. Урожайная, д. 14</t>
+  </si>
+  <si>
+    <t>Россия, поселение. Марушкинское, г. Москва, квартал. 190, 1, 6</t>
+  </si>
+  <si>
+    <t>Россия, 143026, Московская область, Новоивановское, Агрохимиков ул, д. 17</t>
+  </si>
+  <si>
+    <t>Россия, 143026, Московская область, Новоивановское, Агрохимиков ул, д. 6</t>
+  </si>
+  <si>
+    <t>Россия, обл. Московская, р-н. Одинцовский, рп. Новоивановское, ул. Агрохимиков, 6</t>
+  </si>
+  <si>
+    <t>Россия, 143026, Московская область, Новоивановское, Калинина ул, д. 1</t>
+  </si>
+  <si>
+    <t>Россия, 143026, г Москва, км Минское ш. 18-й, 7, 9</t>
   </si>
 </sst>
 </file>
@@ -407,43 +615,685 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ1048496"/>
+  <dimension ref="A1:AMJ1048568"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="98.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="115.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="1024" width="12.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AMJ5"/>
+    </row>
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="AMJ6"/>
+    </row>
+    <row r="7" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="AMJ7"/>
+    </row>
+    <row r="8" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="1048459" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048460" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048496" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="AMJ8"/>
+    </row>
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AMI9"/>
+      <c r="AMJ9"/>
+    </row>
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMI10"/>
+      <c r="AMJ10"/>
+    </row>
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AMI11"/>
+      <c r="AMJ11"/>
+    </row>
+    <row r="12" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AMI12"/>
+      <c r="AMJ12"/>
+    </row>
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AMJ13"/>
+    </row>
+    <row r="14" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AMJ14"/>
+    </row>
+    <row r="15" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMJ15"/>
+    </row>
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AMJ16"/>
+    </row>
+    <row r="17" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AMJ17"/>
+    </row>
+    <row r="18" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AMJ18"/>
+    </row>
+    <row r="19" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AMJ19"/>
+    </row>
+    <row r="20" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AMJ20"/>
+    </row>
+    <row r="21" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AMJ21"/>
+    </row>
+    <row r="22" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AMJ22"/>
+    </row>
+    <row r="23" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AMJ23"/>
+    </row>
+    <row r="24" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AMJ24"/>
+    </row>
+    <row r="25" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AMJ25"/>
+    </row>
+    <row r="26" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AMJ26"/>
+    </row>
+    <row r="27" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AMJ27"/>
+    </row>
+    <row r="28" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AMJ28"/>
+    </row>
+    <row r="29" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AMJ29"/>
+    </row>
+    <row r="30" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AMJ30"/>
+    </row>
+    <row r="31" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AMJ31"/>
+    </row>
+    <row r="32" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AMJ32"/>
+    </row>
+    <row r="33" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMJ33"/>
+    </row>
+    <row r="34" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMJ34"/>
+    </row>
+    <row r="35" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AMJ35"/>
+    </row>
+    <row r="36" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AMJ36"/>
+    </row>
+    <row r="37" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AMJ37"/>
+    </row>
+    <row r="38" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AMJ38"/>
+    </row>
+    <row r="39" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AMJ39"/>
+    </row>
+    <row r="40" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AMJ40"/>
+    </row>
+    <row r="41" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AMJ41"/>
+    </row>
+    <row r="42" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AMJ42"/>
+    </row>
+    <row r="43" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AMJ43"/>
+    </row>
+    <row r="44" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AMJ44"/>
+    </row>
+    <row r="45" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AMJ45"/>
+    </row>
+    <row r="46" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AMJ46"/>
+    </row>
+    <row r="47" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AMJ47"/>
+    </row>
+    <row r="48" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AMJ48"/>
+    </row>
+    <row r="49" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AMJ49"/>
+    </row>
+    <row r="50" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AMJ50"/>
+    </row>
+    <row r="51" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AMJ51"/>
+    </row>
+    <row r="52" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AMJ52"/>
+    </row>
+    <row r="53" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AMJ53"/>
+    </row>
+    <row r="54" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AMJ54"/>
+    </row>
+    <row r="55" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AMJ55"/>
+    </row>
+    <row r="56" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AMJ56"/>
+    </row>
+    <row r="57" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AMJ57"/>
+    </row>
+    <row r="58" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AMJ58"/>
+    </row>
+    <row r="59" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AMJ59"/>
+    </row>
+    <row r="60" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AMJ60"/>
+    </row>
+    <row r="61" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AMJ61"/>
+    </row>
+    <row r="62" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AMJ62"/>
+    </row>
+    <row r="63" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AMJ63"/>
+    </row>
+    <row r="64" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AMJ64"/>
+    </row>
+    <row r="65" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AMJ65"/>
+    </row>
+    <row r="66" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AMJ66"/>
+    </row>
+    <row r="67" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AMJ67"/>
+    </row>
+    <row r="68" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AMJ68"/>
+    </row>
+    <row r="69" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AMJ69"/>
+    </row>
+    <row r="70" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AMJ70"/>
+    </row>
+    <row r="71" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AMJ71"/>
+    </row>
+    <row r="72" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AMJ72"/>
+    </row>
+    <row r="73" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AMJ73"/>
+    </row>
+    <row r="74" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AMJ74"/>
+    </row>
+    <row r="75" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AMJ75"/>
+    </row>
+    <row r="76" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AMJ76"/>
+    </row>
+    <row r="77" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="AMI77"/>
+      <c r="AMJ77"/>
+    </row>
+    <row r="78" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="AMI78"/>
+      <c r="AMJ78"/>
+    </row>
+    <row r="79" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="AMI79"/>
+      <c r="AMJ79"/>
+    </row>
+    <row r="80" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="AMI80"/>
+      <c r="AMJ80"/>
+    </row>
+    <row r="81" spans="1023:1024" x14ac:dyDescent="0.2">
+      <c r="AMI81"/>
+      <c r="AMJ81"/>
+    </row>
+    <row r="82" spans="1023:1024" x14ac:dyDescent="0.2">
+      <c r="AMI82"/>
+      <c r="AMJ82"/>
+    </row>
+    <row r="83" spans="1023:1024" x14ac:dyDescent="0.2">
+      <c r="AMI83"/>
+      <c r="AMJ83"/>
+    </row>
+    <row r="84" spans="1023:1024" x14ac:dyDescent="0.2">
+      <c r="AMI84"/>
+      <c r="AMJ84"/>
+    </row>
+    <row r="85" spans="1023:1024" x14ac:dyDescent="0.2">
+      <c r="AMI85"/>
+      <c r="AMJ85"/>
+    </row>
+    <row r="86" spans="1023:1024" x14ac:dyDescent="0.2">
+      <c r="AMI86"/>
+      <c r="AMJ86"/>
+    </row>
+    <row r="87" spans="1023:1024" x14ac:dyDescent="0.2">
+      <c r="AMI87"/>
+      <c r="AMJ87"/>
+    </row>
+    <row r="88" spans="1023:1024" x14ac:dyDescent="0.2">
+      <c r="AMI88"/>
+      <c r="AMJ88"/>
+    </row>
+    <row r="89" spans="1023:1024" x14ac:dyDescent="0.2">
+      <c r="AMI89"/>
+      <c r="AMJ89"/>
+    </row>
+    <row r="90" spans="1023:1024" x14ac:dyDescent="0.2">
+      <c r="AMI90"/>
+      <c r="AMJ90"/>
+    </row>
+    <row r="91" spans="1023:1024" x14ac:dyDescent="0.2">
+      <c r="AMI91"/>
+      <c r="AMJ91"/>
+    </row>
+    <row r="92" spans="1023:1024" x14ac:dyDescent="0.2">
+      <c r="AMI92"/>
+      <c r="AMJ92"/>
+    </row>
+    <row r="93" spans="1023:1024" x14ac:dyDescent="0.2">
+      <c r="AMI93"/>
+      <c r="AMJ93"/>
+    </row>
+    <row r="94" spans="1023:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ94"/>
+    </row>
+    <row r="95" spans="1023:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ95"/>
+    </row>
+    <row r="96" spans="1023:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ96"/>
+    </row>
+    <row r="97" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ97"/>
+    </row>
+    <row r="98" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ98"/>
+    </row>
+    <row r="99" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ99"/>
+    </row>
+    <row r="100" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ100"/>
+    </row>
+    <row r="101" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ101"/>
+    </row>
+    <row r="102" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ102"/>
+    </row>
+    <row r="103" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ103"/>
+    </row>
+    <row r="104" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ104"/>
+    </row>
+    <row r="105" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ105"/>
+    </row>
+    <row r="106" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ106"/>
+    </row>
+    <row r="107" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ107"/>
+    </row>
+    <row r="108" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ108"/>
+    </row>
+    <row r="109" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ109"/>
+    </row>
+    <row r="110" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ110"/>
+    </row>
+    <row r="111" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ111"/>
+    </row>
+    <row r="112" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ112"/>
+    </row>
+    <row r="113" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ113"/>
+    </row>
+    <row r="114" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ114"/>
+    </row>
+    <row r="115" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ115"/>
+    </row>
+    <row r="116" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ116"/>
+    </row>
+    <row r="117" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ117"/>
+    </row>
+    <row r="118" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ118"/>
+    </row>
+    <row r="119" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ119"/>
+    </row>
+    <row r="120" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ120"/>
+    </row>
+    <row r="121" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ121"/>
+    </row>
+    <row r="122" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ122"/>
+    </row>
+    <row r="123" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ123"/>
+    </row>
+    <row r="124" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ124"/>
+    </row>
+    <row r="125" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ125"/>
+    </row>
+    <row r="126" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ126"/>
+    </row>
+    <row r="127" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ127"/>
+    </row>
+    <row r="128" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ128"/>
+    </row>
+    <row r="129" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ129"/>
+    </row>
+    <row r="130" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ130"/>
+    </row>
+    <row r="131" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ131"/>
+    </row>
+    <row r="132" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ132"/>
+    </row>
+    <row r="133" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ133"/>
+    </row>
+    <row r="134" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ134"/>
+    </row>
+    <row r="135" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ135"/>
+    </row>
+    <row r="136" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ136"/>
+    </row>
+    <row r="137" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ137"/>
+    </row>
+    <row r="138" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ138"/>
+    </row>
+    <row r="139" spans="1024:1024" x14ac:dyDescent="0.2">
+      <c r="AMJ139"/>
+    </row>
+    <row r="1048531" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048532" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
